--- a/data/Subset 1/Martino Fraction Equivalence 2_Grade 4.xlsx
+++ b/data/Subset 1/Martino Fraction Equivalence 2_Grade 4.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1725,7 +1725,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
